--- a/training_strategies_summary_3outputs.xlsx
+++ b/training_strategies_summary_3outputs.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04317065328359604</v>
+        <v>0.04451902583241463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0471077561378479</v>
+        <v>0.05439749360084534</v>
       </c>
       <c r="E2" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05864460021257401</v>
+        <v>0.06089085713028908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05509250983595848</v>
+        <v>0.06247536838054657</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06497044116258621</v>
+        <v>0.06583996117115021</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06646332889795303</v>
+        <v>0.06597500294446945</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.03300877287983894</v>
+        <v>0.03900332003831863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0406431145966053</v>
+        <v>0.03780550882220268</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05064861103892326</v>
+        <v>0.06639475375413895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05441728606820107</v>
+        <v>0.05703125894069672</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05079974979162216</v>
+        <v>0.07328178733587265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06427524983882904</v>
+        <v>0.06189886480569839</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0486503392457962</v>
+        <v>0.04497849196195602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05957112461328506</v>
+        <v>0.05723088979721069</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06511761248111725</v>
+        <v>0.06248729676008224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06534489989280701</v>
+        <v>0.07186161726713181</v>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06960991770029068</v>
+        <v>0.07334776967763901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09391815215349197</v>
+        <v>0.08502098917961121</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04219057038426399</v>
+        <v>0.04225144162774086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05522326752543449</v>
+        <v>0.05908419191837311</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06061242148280144</v>
+        <v>0.06342194974422455</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05579335242509842</v>
+        <v>0.06670620292425156</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06387381255626678</v>
+        <v>0.06862723827362061</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07152938097715378</v>
+        <v>0.07718832790851593</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02849321626126766</v>
+        <v>0.02675426937639713</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06037795543670654</v>
+        <v>0.05052522569894791</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.05871452018618584</v>
+        <v>0.06311718374490738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07754367589950562</v>
+        <v>0.07491838186979294</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1495922803878784</v>
+        <v>0.1528422832489014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1787422746419907</v>
+        <v>0.172808900475502</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02236689254641533</v>
+        <v>0.02706323191523552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05694512650370598</v>
+        <v>0.05551610141992569</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0371696837246418</v>
+        <v>0.04137841612100601</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0550769604742527</v>
+        <v>0.05602451786398888</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03318106755614281</v>
+        <v>0.03492957353591919</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06239117309451103</v>
+        <v>0.06073344871401787</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>

--- a/training_strategies_summary_3outputs.xlsx
+++ b/training_strategies_summary_3outputs.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04451902583241463</v>
+        <v>0.03965795040130615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05439749360084534</v>
+        <v>0.0547826737165451</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06089085713028908</v>
+        <v>0.05543156713247299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06247536838054657</v>
+        <v>0.06527160853147507</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06583996117115021</v>
+        <v>0.07117732614278793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06597500294446945</v>
+        <v>0.08915852755308151</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.03900332003831863</v>
+        <v>0.04673054069280624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03780550882220268</v>
+        <v>0.04963058978319168</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06639475375413895</v>
+        <v>0.06868482381105423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05703125894069672</v>
+        <v>0.06587180495262146</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07328178733587265</v>
+        <v>0.08428295701742172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06189886480569839</v>
+        <v>0.08387532830238342</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04497849196195602</v>
+        <v>0.05637168139219284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05723088979721069</v>
+        <v>0.07905949652194977</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06248729676008224</v>
+        <v>0.07802604138851166</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07186161726713181</v>
+        <v>0.07597204297780991</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07334776967763901</v>
+        <v>0.1043283492326736</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08502098917961121</v>
+        <v>0.11878602206707</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04225144162774086</v>
+        <v>0.05408810451626778</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05908419191837311</v>
+        <v>0.05916402861475945</v>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06342194974422455</v>
+        <v>0.0736355260014534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06670620292425156</v>
+        <v>0.06991874426603317</v>
       </c>
       <c r="E12" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06862723827362061</v>
+        <v>0.09448502957820892</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07718832790851593</v>
+        <v>0.09238511323928833</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02675426937639713</v>
+        <v>0.04778981953859329</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05052522569894791</v>
+        <v>0.06766390055418015</v>
       </c>
       <c r="E14" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.06311718374490738</v>
+        <v>0.07409015297889709</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07491838186979294</v>
+        <v>0.08854994922876358</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1528422832489014</v>
+        <v>0.2113265544176102</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172808900475502</v>
+        <v>0.2316052466630936</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02706323191523552</v>
+        <v>0.02525404840707779</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05551610141992569</v>
+        <v>0.04385346919298172</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.04137841612100601</v>
+        <v>0.04202946648001671</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05602451786398888</v>
+        <v>0.05613203719258308</v>
       </c>
       <c r="E18" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03492957353591919</v>
+        <v>0.05911991000175476</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06073344871401787</v>
+        <v>0.09121196717023849</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
